--- a/Soil_DB.xlsx
+++ b/Soil_DB.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdf0e1083cda4b2c/Área de Trabalho/Análise Solos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{B4EB88CE-394B-4A08-A25C-6B1E3ED25508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC7E2A8F-CACA-424F-865A-EBF589CAC9BF}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{B4EB88CE-394B-4A08-A25C-6B1E3ED25508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{083827C4-08BF-4B93-BC61-E4910EA3BC0D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{AA0C5D0B-1F05-4EE6-9414-172C74991B4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{AA0C5D0B-1F05-4EE6-9414-172C74991B4D}"/>
   </bookViews>
   <sheets>
-    <sheet name="df1" sheetId="1" r:id="rId1"/>
-    <sheet name="df2" sheetId="2" r:id="rId2"/>
-    <sheet name="df3" sheetId="3" r:id="rId3"/>
-    <sheet name="df4" sheetId="4" r:id="rId4"/>
-    <sheet name="df5" sheetId="5" r:id="rId5"/>
+    <sheet name="df" sheetId="6" r:id="rId1"/>
+    <sheet name="df1" sheetId="1" r:id="rId2"/>
+    <sheet name="df2" sheetId="2" r:id="rId3"/>
+    <sheet name="df3" sheetId="3" r:id="rId4"/>
+    <sheet name="df4" sheetId="4" r:id="rId5"/>
+    <sheet name="df5" sheetId="5" r:id="rId6"/>
+    <sheet name="Plot" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="369">
   <si>
     <t>pH</t>
   </si>
@@ -809,6 +811,749 @@
   </si>
   <si>
     <t>_x000D_
+103,4</t>
+  </si>
+  <si>
+    <t>Cstock_Total</t>
+  </si>
+  <si>
+    <t>S22</t>
+  </si>
+  <si>
+    <t>S23</t>
+  </si>
+  <si>
+    <t>S31</t>
+  </si>
+  <si>
+    <t>S32</t>
+  </si>
+  <si>
+    <t>S33</t>
+  </si>
+  <si>
+    <t>S34</t>
+  </si>
+  <si>
+    <t>S41</t>
+  </si>
+  <si>
+    <t>S42</t>
+  </si>
+  <si>
+    <t>S43</t>
+  </si>
+  <si>
+    <t>S44</t>
+  </si>
+  <si>
+    <t>S51</t>
+  </si>
+  <si>
+    <t>S52</t>
+  </si>
+  <si>
+    <t>S53</t>
+  </si>
+  <si>
+    <t>S54</t>
+  </si>
+  <si>
+    <t>S55</t>
+  </si>
+  <si>
+    <t>S62</t>
+  </si>
+  <si>
+    <t>S63</t>
+  </si>
+  <si>
+    <t>S65</t>
+  </si>
+  <si>
+    <t>S71</t>
+  </si>
+  <si>
+    <t>S72</t>
+  </si>
+  <si>
+    <t>S73</t>
+  </si>
+  <si>
+    <t>S81</t>
+  </si>
+  <si>
+    <t>S82</t>
+  </si>
+  <si>
+    <t>S83</t>
+  </si>
+  <si>
+    <t>S91</t>
+  </si>
+  <si>
+    <t>S92</t>
+  </si>
+  <si>
+    <t>S93</t>
+  </si>
+  <si>
+    <t>S101</t>
+  </si>
+  <si>
+    <t>S102</t>
+  </si>
+  <si>
+    <t>S103</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>S_x000D_
+31</t>
+  </si>
+  <si>
+    <t>S_x000D_
+71</t>
+  </si>
+  <si>
+    <t>S_x000D_
+72</t>
+  </si>
+  <si>
+    <t>S_x000D_
+81</t>
+  </si>
+  <si>
+    <t>S_x000D_
+82</t>
+  </si>
+  <si>
+    <t>S_x000D_
+102</t>
+  </si>
+  <si>
+    <t>S_x000D_
+42</t>
+  </si>
+  <si>
+    <t>S_x000D_
+43</t>
+  </si>
+  <si>
+    <t>S_x000D_
+44</t>
+  </si>
+  <si>
+    <t>S_x000D_
+52</t>
+  </si>
+  <si>
+    <t>S_x000D_
+53</t>
+  </si>
+  <si>
+    <t>S_x000D_
+54</t>
+  </si>
+  <si>
+    <t>S_x000D_
+55</t>
+  </si>
+  <si>
+    <t>S_x000D_
+63</t>
+  </si>
+  <si>
+    <t>S_x000D_
+65</t>
+  </si>
+  <si>
+    <t>S_x000D_
+23</t>
+  </si>
+  <si>
+    <t>S_x000D_
+32</t>
+  </si>
+  <si>
+    <t>S_x000D_
+33</t>
+  </si>
+  <si>
+    <t>S_x000D_
+34</t>
+  </si>
+  <si>
+    <t>S_x000D_
+41</t>
+  </si>
+  <si>
+    <t>S_x000D_
+51</t>
+  </si>
+  <si>
+    <t>S_x000D_
+62</t>
+  </si>
+  <si>
+    <t>S_x000D_
+73</t>
+  </si>
+  <si>
+    <t>S_x000D_
+83</t>
+  </si>
+  <si>
+    <t>S_x000D_
+91</t>
+  </si>
+  <si>
+    <t>S_x000D_
+92</t>
+  </si>
+  <si>
+    <t>S_x000D_
+93</t>
+  </si>
+  <si>
+    <t>S_x000D_
+101</t>
+  </si>
+  <si>
+    <t>S_x000D_
+103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+31,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+31,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+31,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+31,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+71,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+71,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+71,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+72,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+72,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+72,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+72,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+81,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+81,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+81,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+81,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+82,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+82,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+82,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+82,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+102,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+102,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+102,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+102,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+42,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+42,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+42,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+42,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+43,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+43,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+43,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+43,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+44,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+44,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+44,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+44,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+52,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+52,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+52,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+52,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+53,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+53,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+53,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+53,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+54,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+54,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+54,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+54,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+55,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+55,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+55,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+55,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+63,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+63,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+63,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+63,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+65,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+65,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+65,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+65,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S22,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S22,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S22,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+22,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+23,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+23,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+23,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+23,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+32,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+32,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+32,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+32,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+33,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+33,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+33,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+33,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+34,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+34,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+34,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+34,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+41,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+41,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+41,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+41,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+51,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+51,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+51,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+51,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+62,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S62,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+62,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+62,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+73,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+73,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+73,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+73,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+83,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+83,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+83,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+83,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+91,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+91,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+91,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+91,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+92,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+92,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+92,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S92,4_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+93,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+93,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+93,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+93,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+101,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+101,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+101,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
+101,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+103,1_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_x000D_
+103,2_x000D_
+</t>
+  </si>
+  <si>
+    <t>S_x000D_
+103,3</t>
+  </si>
+  <si>
+    <t>S_x000D_
 103,4</t>
   </si>
 </sst>
@@ -1214,6 +1959,362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B79A84-9E13-43D6-B09D-A58FD09CEA88}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>68.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>58.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>92.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>65.59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>64.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>55.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>56.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>63.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>120.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>55.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>30.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>57.82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>63.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>78.650000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>60.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>115.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>40.630000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>75.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>96.52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>118.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>72.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>73.040000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>77.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>88.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>92.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>83.21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D637F3F6-62F5-4646-9A40-7AE0F9D8DA20}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
@@ -4452,7 +5553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F884F11-0C67-43DC-B137-A652ED3F5AD4}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
@@ -7374,7 +8475,7 @@
         <v>13.22</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>97</v>
       </c>
@@ -7478,7 +8579,7 @@
         <v>18.809999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>98</v>
       </c>
@@ -7582,7 +8683,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>99</v>
       </c>
@@ -7691,7 +8792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072DEDF7-C763-416F-8626-86BEE31EE160}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
@@ -10613,7 +11714,7 @@
         <v>10.39</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>127</v>
       </c>
@@ -10717,7 +11818,7 @@
         <v>14.61</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>128</v>
       </c>
@@ -10821,7 +11922,7 @@
         <v>19.68</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>129</v>
       </c>
@@ -10930,7 +12031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FD21C1-4FBA-482F-919C-C13C9BA836EF}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
@@ -14169,12 +15270,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5089B8-0EF3-469D-B882-7B3DC29A3916}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14284,7 +15385,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
         <v>159</v>
       </c>
       <c r="B2" t="s">
@@ -14388,7 +15489,7 @@
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>160</v>
       </c>
       <c r="B3" t="s">
@@ -14492,7 +15593,7 @@
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>161</v>
       </c>
       <c r="B4" t="s">
@@ -14596,7 +15697,7 @@
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>162</v>
       </c>
       <c r="B5" t="s">
@@ -14700,7 +15801,7 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
@@ -14804,7 +15905,7 @@
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>164</v>
       </c>
       <c r="B7" t="s">
@@ -14908,7 +16009,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" t="s">
         <v>165</v>
       </c>
       <c r="B8" t="s">
@@ -15012,7 +16113,7 @@
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
@@ -15116,7 +16217,7 @@
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
@@ -15220,7 +16321,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>168</v>
       </c>
       <c r="B11" t="s">
@@ -15324,7 +16425,7 @@
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>169</v>
       </c>
       <c r="B12" t="s">
@@ -15428,7 +16529,7 @@
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>170</v>
       </c>
       <c r="B13" t="s">
@@ -15532,7 +16633,7 @@
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>171</v>
       </c>
       <c r="B14" t="s">
@@ -15636,7 +16737,7 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>172</v>
       </c>
       <c r="B15" t="s">
@@ -15740,7 +16841,7 @@
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>173</v>
       </c>
       <c r="B16" t="s">
@@ -15844,7 +16945,7 @@
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>174</v>
       </c>
       <c r="B17" t="s">
@@ -15948,7 +17049,7 @@
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>175</v>
       </c>
       <c r="B18" t="s">
@@ -16052,7 +17153,7 @@
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>176</v>
       </c>
       <c r="B19" t="s">
@@ -16156,7 +17257,7 @@
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>177</v>
       </c>
       <c r="B20" t="s">
@@ -16260,7 +17361,7 @@
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>178</v>
       </c>
       <c r="B21" t="s">
@@ -16364,7 +17465,7 @@
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>179</v>
       </c>
       <c r="B22" t="s">
@@ -16468,7 +17569,7 @@
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>180</v>
       </c>
       <c r="B23" t="s">
@@ -16572,7 +17673,7 @@
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>181</v>
       </c>
       <c r="B24" t="s">
@@ -16676,7 +17777,7 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" t="s">
         <v>182</v>
       </c>
       <c r="B25" t="s">
@@ -16780,7 +17881,7 @@
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>183</v>
       </c>
       <c r="B26" t="s">
@@ -16884,7 +17985,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" t="s">
         <v>184</v>
       </c>
       <c r="B27" t="s">
@@ -16988,7 +18089,7 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>185</v>
       </c>
       <c r="B28" t="s">
@@ -17092,7 +18193,7 @@
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" t="s">
         <v>186</v>
       </c>
       <c r="B29" t="s">
@@ -17196,7 +18297,7 @@
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>187</v>
       </c>
       <c r="B30" t="s">
@@ -17300,7 +18401,7 @@
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>188</v>
       </c>
       <c r="B31" t="s">
@@ -17401,6 +18502,2588 @@
       </c>
       <c r="AH31">
         <v>8.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50118FF4-0C45-4DBA-85BA-11699B375BAA}">
+  <dimension ref="A1:E151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>34.520000000000003</v>
+      </c>
+      <c r="E2">
+        <v>-26.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>26.52</v>
+      </c>
+      <c r="E3">
+        <v>-26.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>12.91</v>
+      </c>
+      <c r="E4">
+        <v>-25.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E5">
+        <v>-23.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>9.89</v>
+      </c>
+      <c r="E6">
+        <v>-23.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>41.07</v>
+      </c>
+      <c r="E7">
+        <v>-26.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>28.6</v>
+      </c>
+      <c r="E8">
+        <v>-25.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>17.16</v>
+      </c>
+      <c r="E9">
+        <v>-25.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>13.02</v>
+      </c>
+      <c r="E10">
+        <v>-24.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>15.26</v>
+      </c>
+      <c r="E11">
+        <v>-24.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>12.69</v>
+      </c>
+      <c r="E12">
+        <v>-26.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>9.07</v>
+      </c>
+      <c r="E13">
+        <v>-25.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>5.9</v>
+      </c>
+      <c r="E14">
+        <v>-24.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>6.81</v>
+      </c>
+      <c r="E15">
+        <v>-23.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>6.13</v>
+      </c>
+      <c r="E16">
+        <v>-22.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>36.47</v>
+      </c>
+      <c r="E17">
+        <v>-26.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>18.13</v>
+      </c>
+      <c r="E18">
+        <v>-26.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>12.93</v>
+      </c>
+      <c r="E19">
+        <v>-25.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>14.6</v>
+      </c>
+      <c r="E20">
+        <v>-25.36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>14.37</v>
+      </c>
+      <c r="E21">
+        <v>-25.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>36.78</v>
+      </c>
+      <c r="E22">
+        <v>-27.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="E23">
+        <v>-27.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="E24">
+        <v>-25.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25">
+        <v>16.37</v>
+      </c>
+      <c r="E25">
+        <v>-24.12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>12.99</v>
+      </c>
+      <c r="E26">
+        <v>-23.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>24.67</v>
+      </c>
+      <c r="E27">
+        <v>-27.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>21.29</v>
+      </c>
+      <c r="E28">
+        <v>-26.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>19.68</v>
+      </c>
+      <c r="E29">
+        <v>-26.34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>15.44</v>
+      </c>
+      <c r="E30">
+        <v>-25.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>11.88</v>
+      </c>
+      <c r="E31">
+        <v>-24.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E32">
+        <v>-16.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>9.26</v>
+      </c>
+      <c r="E33">
+        <v>-16.170000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E34">
+        <v>-16.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>2.77</v>
+      </c>
+      <c r="E35">
+        <v>-16.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>1.88</v>
+      </c>
+      <c r="E36">
+        <v>-18.21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>32.24</v>
+      </c>
+      <c r="E37">
+        <v>-15.74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>13.7</v>
+      </c>
+      <c r="E38">
+        <v>-16.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>4.93</v>
+      </c>
+      <c r="E39">
+        <v>-17.22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>3.7</v>
+      </c>
+      <c r="E40">
+        <v>-16.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>1.84</v>
+      </c>
+      <c r="E41">
+        <v>-17.91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>22.75</v>
+      </c>
+      <c r="E42">
+        <v>-22.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>16.73</v>
+      </c>
+      <c r="E43">
+        <v>-21.87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>11.59</v>
+      </c>
+      <c r="E44">
+        <v>-20.82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>6.56</v>
+      </c>
+      <c r="E45">
+        <v>-18.579999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>6.27</v>
+      </c>
+      <c r="E46">
+        <v>-18.010000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>13.5</v>
+      </c>
+      <c r="E47">
+        <v>-17.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>10.97</v>
+      </c>
+      <c r="E48">
+        <v>-18.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="E49">
+        <v>-17.89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>8.14</v>
+      </c>
+      <c r="E50">
+        <v>-17.66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>6.91</v>
+      </c>
+      <c r="E51">
+        <v>-16.93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>21.84</v>
+      </c>
+      <c r="E52">
+        <v>-19.21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="E53">
+        <v>-18.739999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>9.89</v>
+      </c>
+      <c r="E54">
+        <v>-17.91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>7.98</v>
+      </c>
+      <c r="E55">
+        <v>-19.239999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>6.05</v>
+      </c>
+      <c r="E56">
+        <v>-18.420000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>12.49</v>
+      </c>
+      <c r="E57">
+        <v>-20.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>5.96</v>
+      </c>
+      <c r="E58">
+        <v>-19.510000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E59">
+        <v>-20.65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>3.98</v>
+      </c>
+      <c r="E60">
+        <v>-20.56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>3.05</v>
+      </c>
+      <c r="E61">
+        <v>-19.64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E62">
+        <v>-19.98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>11.05</v>
+      </c>
+      <c r="E63">
+        <v>-19.760000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>11.67</v>
+      </c>
+      <c r="E64">
+        <v>-19.07</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>7.84</v>
+      </c>
+      <c r="E65">
+        <v>-18.239999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>7.84</v>
+      </c>
+      <c r="E66">
+        <v>-17.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>21.74</v>
+      </c>
+      <c r="E67">
+        <v>-17.329999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>23.32</v>
+      </c>
+      <c r="E68">
+        <v>-17.59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E69">
+        <v>-17.7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E70">
+        <v>-17.440000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>7.24</v>
+      </c>
+      <c r="E71">
+        <v>-17.45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>22.73</v>
+      </c>
+      <c r="E72">
+        <v>-17.98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>12.91</v>
+      </c>
+      <c r="E73">
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>9.56</v>
+      </c>
+      <c r="E74">
+        <v>-17.18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>8.48</v>
+      </c>
+      <c r="E75">
+        <v>-16.510000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" t="s">
+        <v>69</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>6.96</v>
+      </c>
+      <c r="E76">
+        <v>-16.72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>22.33</v>
+      </c>
+      <c r="E77">
+        <v>-26.17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>15.11</v>
+      </c>
+      <c r="E78">
+        <v>-25.37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>12.88</v>
+      </c>
+      <c r="E79">
+        <v>-22.19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>10.27</v>
+      </c>
+      <c r="E80">
+        <v>-21.48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>7.54</v>
+      </c>
+      <c r="E81">
+        <v>-18.48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>18.27</v>
+      </c>
+      <c r="E82">
+        <v>-26.37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>12.97</v>
+      </c>
+      <c r="E83">
+        <v>-24.36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>11.62</v>
+      </c>
+      <c r="E84">
+        <v>-20.85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B85" t="s">
+        <v>68</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>8.17</v>
+      </c>
+      <c r="E85">
+        <v>-18.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B86" t="s">
+        <v>69</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86">
+        <v>7.2</v>
+      </c>
+      <c r="E86">
+        <v>-18.27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>19.18</v>
+      </c>
+      <c r="E87">
+        <v>-25.01</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>13.62</v>
+      </c>
+      <c r="E88">
+        <v>-24.45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>12.48</v>
+      </c>
+      <c r="E89">
+        <v>-21.82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B90" t="s">
+        <v>68</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90">
+        <v>8.75</v>
+      </c>
+      <c r="E90">
+        <v>-20.329999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B91" t="s">
+        <v>69</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>7.53</v>
+      </c>
+      <c r="E91">
+        <v>-18.39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>23.84</v>
+      </c>
+      <c r="E92">
+        <v>-26.15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>15.87</v>
+      </c>
+      <c r="E93">
+        <v>-25.13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>10.23</v>
+      </c>
+      <c r="E94">
+        <v>-21.97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>7.81</v>
+      </c>
+      <c r="E95">
+        <v>-19.670000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>7.82</v>
+      </c>
+      <c r="E96">
+        <v>-19.78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>18.3</v>
+      </c>
+      <c r="E97">
+        <v>-26.44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>16.77</v>
+      </c>
+      <c r="E98">
+        <v>-25.97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B99" t="s">
+        <v>67</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>11.07</v>
+      </c>
+      <c r="E99">
+        <v>-23.23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B100" t="s">
+        <v>68</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>11.4</v>
+      </c>
+      <c r="E100">
+        <v>-22.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B101" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>7.21</v>
+      </c>
+      <c r="E101">
+        <v>-20.89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>18.09</v>
+      </c>
+      <c r="E102">
+        <v>-26.14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>11.21</v>
+      </c>
+      <c r="E103">
+        <v>-24.76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B104" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>8.99</v>
+      </c>
+      <c r="E104">
+        <v>-22.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>9.27</v>
+      </c>
+      <c r="E105">
+        <v>-21.9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>7.78</v>
+      </c>
+      <c r="E106">
+        <v>-20.11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>84.54</v>
+      </c>
+      <c r="E107">
+        <v>-17.88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="E108">
+        <v>-18.190000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" t="s">
+        <v>67</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>8.9</v>
+      </c>
+      <c r="E109">
+        <v>-18.93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B110" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>3.96</v>
+      </c>
+      <c r="E110">
+        <v>-19.54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B111" t="s">
+        <v>69</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>5.15</v>
+      </c>
+      <c r="E111">
+        <v>-18.940000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>20.38</v>
+      </c>
+      <c r="E112">
+        <v>-26.47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>12.95</v>
+      </c>
+      <c r="E113">
+        <v>-25.57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>11.51</v>
+      </c>
+      <c r="E114">
+        <v>-22.79</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B115" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>10.74</v>
+      </c>
+      <c r="E115">
+        <v>-22.56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B116" t="s">
+        <v>69</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>7.46</v>
+      </c>
+      <c r="E116">
+        <v>-20.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>25.21</v>
+      </c>
+      <c r="E117">
+        <v>-26.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B118" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>15.26</v>
+      </c>
+      <c r="E118">
+        <v>-25.02</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>12.75</v>
+      </c>
+      <c r="E119">
+        <v>-23.13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B120" t="s">
+        <v>68</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>12.39</v>
+      </c>
+      <c r="E120">
+        <v>-22.24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B121" t="s">
+        <v>69</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>10.28</v>
+      </c>
+      <c r="E121">
+        <v>-21.72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B122" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>23.47</v>
+      </c>
+      <c r="E122">
+        <v>-26.37</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>14.96</v>
+      </c>
+      <c r="E123">
+        <v>-24.57</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>12.13</v>
+      </c>
+      <c r="E124">
+        <v>-22.59</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B125" t="s">
+        <v>68</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>-22.02</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B126" t="s">
+        <v>69</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126">
+        <v>9.59</v>
+      </c>
+      <c r="E126">
+        <v>-21.07</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B127" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127">
+        <v>20.48</v>
+      </c>
+      <c r="E127">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B128" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128">
+        <v>17.77</v>
+      </c>
+      <c r="E128">
+        <v>-25.77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>13.62</v>
+      </c>
+      <c r="E129">
+        <v>-22.49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B130" t="s">
+        <v>68</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130">
+        <v>12.14</v>
+      </c>
+      <c r="E130">
+        <v>-21.87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B131" t="s">
+        <v>69</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>-20.69</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132">
+        <v>21.65</v>
+      </c>
+      <c r="E132">
+        <v>-25.71</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B133" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>16.52</v>
+      </c>
+      <c r="E133">
+        <v>-24.2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B134" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134">
+        <v>14.42</v>
+      </c>
+      <c r="E134">
+        <v>-22.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B135" t="s">
+        <v>68</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135">
+        <v>12.59</v>
+      </c>
+      <c r="E135">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B136" t="s">
+        <v>69</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>12.23</v>
+      </c>
+      <c r="E136">
+        <v>-21.09</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B137" t="s">
+        <v>36</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>22.07</v>
+      </c>
+      <c r="E137">
+        <v>-25.69</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B138" t="s">
+        <v>65</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>13.22</v>
+      </c>
+      <c r="E138">
+        <v>-22.93</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B139" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139">
+        <v>10.39</v>
+      </c>
+      <c r="E139">
+        <v>-19.329999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B140" t="s">
+        <v>68</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140">
+        <v>8.33</v>
+      </c>
+      <c r="E140">
+        <v>-18.14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B141" t="s">
+        <v>69</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>6.84</v>
+      </c>
+      <c r="E141">
+        <v>-18.45</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B142" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>27.1</v>
+      </c>
+      <c r="E142">
+        <v>-26.11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B143" t="s">
+        <v>65</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="E143">
+        <v>-24.96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B144" t="s">
+        <v>67</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>14.61</v>
+      </c>
+      <c r="E144">
+        <v>-22.33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B145" t="s">
+        <v>68</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>15.08</v>
+      </c>
+      <c r="E145">
+        <v>-22.64</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B146" t="s">
+        <v>69</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>12.99</v>
+      </c>
+      <c r="E146">
+        <v>-21.55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B147" t="s">
+        <v>36</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>27</v>
+      </c>
+      <c r="E147">
+        <v>-25.87</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>22.62</v>
+      </c>
+      <c r="E148">
+        <v>-26.14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B149" t="s">
+        <v>67</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>13.13</v>
+      </c>
+      <c r="E149">
+        <v>-20.87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B150" t="s">
+        <v>68</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>12.1</v>
+      </c>
+      <c r="E150">
+        <v>-19.899999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B151" t="s">
+        <v>69</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>8.64</v>
+      </c>
+      <c r="E151">
+        <v>-18.670000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Soil_DB.xlsx
+++ b/Soil_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdf0e1083cda4b2c/Área de Trabalho/Análise Solos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{B4EB88CE-394B-4A08-A25C-6B1E3ED25508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{083827C4-08BF-4B93-BC61-E4910EA3BC0D}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{B4EB88CE-394B-4A08-A25C-6B1E3ED25508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66C76E80-7237-4AB1-8D88-22B5A73CD9F0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{AA0C5D0B-1F05-4EE6-9414-172C74991B4D}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="369">
   <si>
     <t>pH</t>
   </si>
@@ -1611,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1622,6 +1622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2318,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D637F3F6-62F5-4646-9A40-7AE0F9D8DA20}">
   <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3482,7 +3483,7 @@
         <v>0.753</v>
       </c>
       <c r="E12" s="2">
-        <v>0.23</v>
+        <v>2.3E-2</v>
       </c>
       <c r="F12" s="2">
         <v>0.224</v>
@@ -18511,15 +18512,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50118FF4-0C45-4DBA-85BA-11699B375BAA}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>220</v>
       </c>
@@ -18535,8 +18536,17 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>221</v>
       </c>
@@ -18552,8 +18562,18 @@
       <c r="E2">
         <v>-26.33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>34.9</v>
+      </c>
+      <c r="G2">
+        <v>0.98</v>
+      </c>
+      <c r="H2">
+        <v>101</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>250</v>
       </c>
@@ -18569,8 +18589,17 @@
       <c r="E3">
         <v>-26.69</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>24.4</v>
+      </c>
+      <c r="G3">
+        <v>0.79</v>
+      </c>
+      <c r="H3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>251</v>
       </c>
@@ -18586,8 +18615,17 @@
       <c r="E4">
         <v>-25.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>15.2</v>
+      </c>
+      <c r="G4">
+        <v>0.4</v>
+      </c>
+      <c r="H4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>252</v>
       </c>
@@ -18603,8 +18641,17 @@
       <c r="E5">
         <v>-23.94</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>14.2</v>
+      </c>
+      <c r="G5">
+        <v>0.27</v>
+      </c>
+      <c r="H5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>253</v>
       </c>
@@ -18620,8 +18667,17 @@
       <c r="E6">
         <v>-23.62</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>11.9</v>
+      </c>
+      <c r="G6">
+        <v>0.31</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>222</v>
       </c>
@@ -18637,8 +18693,17 @@
       <c r="E7">
         <v>-26.44</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.28</v>
+      </c>
+      <c r="H7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>88</v>
       </c>
@@ -18654,8 +18719,17 @@
       <c r="E8">
         <v>-25.93</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>10.6</v>
+      </c>
+      <c r="G8">
+        <v>0.92</v>
+      </c>
+      <c r="H8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>254</v>
       </c>
@@ -18671,8 +18745,17 @@
       <c r="E9">
         <v>-25.37</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>255</v>
       </c>
@@ -18688,8 +18771,17 @@
       <c r="E10">
         <v>-24.88</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>7.7</v>
+      </c>
+      <c r="G10">
+        <v>0.42</v>
+      </c>
+      <c r="H10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>256</v>
       </c>
@@ -18705,8 +18797,17 @@
       <c r="E11">
         <v>-24.81</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G11">
+        <v>0.49</v>
+      </c>
+      <c r="H11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>223</v>
       </c>
@@ -18722,8 +18823,17 @@
       <c r="E12">
         <v>-26.42</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>12.9</v>
+      </c>
+      <c r="G12">
+        <v>0.39</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>257</v>
       </c>
@@ -18739,8 +18849,17 @@
       <c r="E13">
         <v>-25.52</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>6.1</v>
+      </c>
+      <c r="G13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>258</v>
       </c>
@@ -18756,8 +18875,17 @@
       <c r="E14">
         <v>-24.12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G14">
+        <v>0.19</v>
+      </c>
+      <c r="H14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>259</v>
       </c>
@@ -18773,8 +18901,17 @@
       <c r="E15">
         <v>-23.57</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>3.8</v>
+      </c>
+      <c r="G15">
+        <v>0.22</v>
+      </c>
+      <c r="H15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>260</v>
       </c>
@@ -18790,8 +18927,17 @@
       <c r="E16">
         <v>-22.61</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>3.4</v>
+      </c>
+      <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>224</v>
       </c>
@@ -18807,8 +18953,17 @@
       <c r="E17">
         <v>-26.93</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="G17">
+        <v>1.04</v>
+      </c>
+      <c r="H17">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>261</v>
       </c>
@@ -18824,8 +18979,17 @@
       <c r="E18">
         <v>-26.79</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>24.2</v>
+      </c>
+      <c r="G18">
+        <v>0.54</v>
+      </c>
+      <c r="H18">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>262</v>
       </c>
@@ -18841,8 +19005,17 @@
       <c r="E19">
         <v>-25.59</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>16.5</v>
+      </c>
+      <c r="G19">
+        <v>0.4</v>
+      </c>
+      <c r="H19">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>263</v>
       </c>
@@ -18858,8 +19031,17 @@
       <c r="E20">
         <v>-25.36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>17.3</v>
+      </c>
+      <c r="G20">
+        <v>0.45</v>
+      </c>
+      <c r="H20">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>264</v>
       </c>
@@ -18875,8 +19057,17 @@
       <c r="E21">
         <v>-25.13</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>15.6</v>
+      </c>
+      <c r="G21">
+        <v>0.45</v>
+      </c>
+      <c r="H21">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>225</v>
       </c>
@@ -18892,8 +19083,17 @@
       <c r="E22">
         <v>-27.27</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>265</v>
       </c>
@@ -18909,8 +19109,17 @@
       <c r="E23">
         <v>-27.14</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>6.9</v>
+      </c>
+      <c r="G23">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="H23">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>266</v>
       </c>
@@ -18926,8 +19135,17 @@
       <c r="E24">
         <v>-25.01</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>267</v>
       </c>
@@ -18943,8 +19161,17 @@
       <c r="E25">
         <v>-24.12</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G25">
+        <v>0.54</v>
+      </c>
+      <c r="H25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>268</v>
       </c>
@@ -18960,8 +19187,17 @@
       <c r="E26">
         <v>-23.08</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G26">
+        <v>0.43</v>
+      </c>
+      <c r="H26">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>226</v>
       </c>
@@ -18977,8 +19213,17 @@
       <c r="E27">
         <v>-27.37</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G27">
+        <v>0.79</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>269</v>
       </c>
@@ -18994,8 +19239,17 @@
       <c r="E28">
         <v>-26.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G28">
+        <v>0.7</v>
+      </c>
+      <c r="H28">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>270</v>
       </c>
@@ -19011,8 +19265,17 @@
       <c r="E29">
         <v>-26.34</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>3.5</v>
+      </c>
+      <c r="G29">
+        <v>0.66</v>
+      </c>
+      <c r="H29">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>271</v>
       </c>
@@ -19028,8 +19291,17 @@
       <c r="E30">
         <v>-25.28</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>2.4</v>
+      </c>
+      <c r="G30">
+        <v>0.52</v>
+      </c>
+      <c r="H30">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>272</v>
       </c>
@@ -19045,8 +19317,17 @@
       <c r="E31">
         <v>-24.24</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>2.4</v>
+      </c>
+      <c r="G31">
+        <v>0.4</v>
+      </c>
+      <c r="H31">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>227</v>
       </c>
@@ -19062,8 +19343,17 @@
       <c r="E32">
         <v>-16.04</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>3.5</v>
+      </c>
+      <c r="G32">
+        <v>0.64</v>
+      </c>
+      <c r="H32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>273</v>
       </c>
@@ -19079,8 +19369,17 @@
       <c r="E33">
         <v>-16.170000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>1.7</v>
+      </c>
+      <c r="G33">
+        <v>0.3</v>
+      </c>
+      <c r="H33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>274</v>
       </c>
@@ -19096,8 +19395,17 @@
       <c r="E34">
         <v>-16.38</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.15</v>
+      </c>
+      <c r="H34">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>275</v>
       </c>
@@ -19113,8 +19421,17 @@
       <c r="E35">
         <v>-16.62</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>1.2</v>
+      </c>
+      <c r="G35">
+        <v>0.09</v>
+      </c>
+      <c r="H35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>276</v>
       </c>
@@ -19130,8 +19447,17 @@
       <c r="E36">
         <v>-18.21</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>6.5</v>
+      </c>
+      <c r="G36">
+        <v>0.06</v>
+      </c>
+      <c r="H36">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>228</v>
       </c>
@@ -19147,8 +19473,17 @@
       <c r="E37">
         <v>-15.74</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>12.5</v>
+      </c>
+      <c r="G37">
+        <v>1.02</v>
+      </c>
+      <c r="H37">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>277</v>
       </c>
@@ -19164,8 +19499,17 @@
       <c r="E38">
         <v>-16.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>10.1</v>
+      </c>
+      <c r="G38">
+        <v>0.43</v>
+      </c>
+      <c r="H38">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>278</v>
       </c>
@@ -19181,8 +19525,17 @@
       <c r="E39">
         <v>-17.22</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>0.16</v>
+      </c>
+      <c r="H39">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>279</v>
       </c>
@@ -19198,8 +19551,17 @@
       <c r="E40">
         <v>-16.22</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G40">
+        <v>0.12</v>
+      </c>
+      <c r="H40">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>280</v>
       </c>
@@ -19215,8 +19577,17 @@
       <c r="E41">
         <v>-17.91</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>2.5</v>
+      </c>
+      <c r="G41">
+        <v>0.06</v>
+      </c>
+      <c r="H41">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>229</v>
       </c>
@@ -19232,8 +19603,17 @@
       <c r="E42">
         <v>-22.37</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>7.5</v>
+      </c>
+      <c r="G42">
+        <v>0.73</v>
+      </c>
+      <c r="H42">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>281</v>
       </c>
@@ -19249,8 +19629,17 @@
       <c r="E43">
         <v>-21.87</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>0.54</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>282</v>
       </c>
@@ -19266,8 +19655,17 @@
       <c r="E44">
         <v>-20.82</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>2.6</v>
+      </c>
+      <c r="G44">
+        <v>0.39</v>
+      </c>
+      <c r="H44">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>283</v>
       </c>
@@ -19283,8 +19681,17 @@
       <c r="E45">
         <v>-18.579999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <v>1.4</v>
+      </c>
+      <c r="G45">
+        <v>0.22</v>
+      </c>
+      <c r="H45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>284</v>
       </c>
@@ -19300,8 +19707,17 @@
       <c r="E46">
         <v>-18.010000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <v>1.6</v>
+      </c>
+      <c r="G46">
+        <v>0.21</v>
+      </c>
+      <c r="H46">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>230</v>
       </c>
@@ -19317,8 +19733,17 @@
       <c r="E47">
         <v>-17.38</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>6.9</v>
+      </c>
+      <c r="G47">
+        <v>0.43</v>
+      </c>
+      <c r="H47">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>285</v>
       </c>
@@ -19334,8 +19759,17 @@
       <c r="E48">
         <v>-18.25</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>0.36</v>
+      </c>
+      <c r="H48">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>286</v>
       </c>
@@ -19351,8 +19785,17 @@
       <c r="E49">
         <v>-17.89</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <v>4.5</v>
+      </c>
+      <c r="G49">
+        <v>0.31</v>
+      </c>
+      <c r="H49">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>287</v>
       </c>
@@ -19368,8 +19811,17 @@
       <c r="E50">
         <v>-17.66</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <v>3.5</v>
+      </c>
+      <c r="G50">
+        <v>0.27</v>
+      </c>
+      <c r="H50">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>288</v>
       </c>
@@ -19385,8 +19837,17 @@
       <c r="E51">
         <v>-16.93</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <v>2.8</v>
+      </c>
+      <c r="G51">
+        <v>0.23</v>
+      </c>
+      <c r="H51">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>231</v>
       </c>
@@ -19402,8 +19863,17 @@
       <c r="E52">
         <v>-19.21</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>15.3</v>
+      </c>
+      <c r="G52">
+        <v>0.67</v>
+      </c>
+      <c r="H52">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>289</v>
       </c>
@@ -19419,8 +19889,17 @@
       <c r="E53">
         <v>-18.739999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <v>6.3</v>
+      </c>
+      <c r="G53">
+        <v>0.31</v>
+      </c>
+      <c r="H53">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>290</v>
       </c>
@@ -19436,8 +19915,17 @@
       <c r="E54">
         <v>-17.91</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <v>10.3</v>
+      </c>
+      <c r="G54">
+        <v>0.32</v>
+      </c>
+      <c r="H54">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>291</v>
       </c>
@@ -19453,8 +19941,17 @@
       <c r="E55">
         <v>-19.239999999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <v>7.1</v>
+      </c>
+      <c r="G55">
+        <v>0.26</v>
+      </c>
+      <c r="H55">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>292</v>
       </c>
@@ -19470,8 +19967,17 @@
       <c r="E56">
         <v>-18.420000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <v>4</v>
+      </c>
+      <c r="G56">
+        <v>0.2</v>
+      </c>
+      <c r="H56">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>232</v>
       </c>
@@ -19487,8 +19993,17 @@
       <c r="E57">
         <v>-20.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>11.1</v>
+      </c>
+      <c r="G57">
+        <v>0.39</v>
+      </c>
+      <c r="H57">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>293</v>
       </c>
@@ -19504,8 +20019,17 @@
       <c r="E58">
         <v>-19.510000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G58">
+        <v>0.19</v>
+      </c>
+      <c r="H58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>294</v>
       </c>
@@ -19521,8 +20045,17 @@
       <c r="E59">
         <v>-20.65</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G59">
+        <v>0.17</v>
+      </c>
+      <c r="H59">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>295</v>
       </c>
@@ -19538,8 +20071,17 @@
       <c r="E60">
         <v>-20.56</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <v>4.7</v>
+      </c>
+      <c r="G60">
+        <v>0.13</v>
+      </c>
+      <c r="H60">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>296</v>
       </c>
@@ -19555,8 +20097,17 @@
       <c r="E61">
         <v>-19.64</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F61">
+        <v>3.9</v>
+      </c>
+      <c r="G61">
+        <v>0.1</v>
+      </c>
+      <c r="H61">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>233</v>
       </c>
@@ -19572,8 +20123,17 @@
       <c r="E62">
         <v>-19.98</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>5.7</v>
+      </c>
+      <c r="G62">
+        <v>0.62</v>
+      </c>
+      <c r="H62">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>297</v>
       </c>
@@ -19589,8 +20149,17 @@
       <c r="E63">
         <v>-19.760000000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <v>1.7</v>
+      </c>
+      <c r="G63">
+        <v>0.37</v>
+      </c>
+      <c r="H63">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>298</v>
       </c>
@@ -19606,8 +20175,17 @@
       <c r="E64">
         <v>-19.07</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F64">
+        <v>2.1</v>
+      </c>
+      <c r="G64">
+        <v>0.39</v>
+      </c>
+      <c r="H64">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>299</v>
       </c>
@@ -19623,8 +20201,17 @@
       <c r="E65">
         <v>-18.239999999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F65">
+        <v>1.9</v>
+      </c>
+      <c r="G65">
+        <v>0.26</v>
+      </c>
+      <c r="H65">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>300</v>
       </c>
@@ -19640,8 +20227,17 @@
       <c r="E66">
         <v>-17.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>1.8</v>
+      </c>
+      <c r="G66">
+        <v>0.26</v>
+      </c>
+      <c r="H66">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>234</v>
       </c>
@@ -19657,8 +20253,17 @@
       <c r="E67">
         <v>-17.329999999999998</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F67">
+        <v>7.6</v>
+      </c>
+      <c r="G67">
+        <v>0.7</v>
+      </c>
+      <c r="H67">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>301</v>
       </c>
@@ -19674,8 +20279,17 @@
       <c r="E68">
         <v>-17.59</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F68">
+        <v>7.1</v>
+      </c>
+      <c r="G68">
+        <v>0.75</v>
+      </c>
+      <c r="H68">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>302</v>
       </c>
@@ -19691,8 +20305,17 @@
       <c r="E69">
         <v>-17.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F69">
+        <v>5.9</v>
+      </c>
+      <c r="G69">
+        <v>0.54</v>
+      </c>
+      <c r="H69">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>303</v>
       </c>
@@ -19708,8 +20331,17 @@
       <c r="E70">
         <v>-17.440000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>2.9</v>
+      </c>
+      <c r="G70">
+        <v>0.34</v>
+      </c>
+      <c r="H70">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>304</v>
       </c>
@@ -19725,8 +20357,17 @@
       <c r="E71">
         <v>-17.45</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <v>3.5</v>
+      </c>
+      <c r="G71">
+        <v>0.24</v>
+      </c>
+      <c r="H71">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>235</v>
       </c>
@@ -19742,8 +20383,17 @@
       <c r="E72">
         <v>-17.98</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F72">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G72">
+        <v>0.71</v>
+      </c>
+      <c r="H72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>305</v>
       </c>
@@ -19759,8 +20409,17 @@
       <c r="E73">
         <v>-18.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F73">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G73">
+        <v>0.41</v>
+      </c>
+      <c r="H73">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>306</v>
       </c>
@@ -19776,8 +20435,17 @@
       <c r="E74">
         <v>-17.18</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F74">
+        <v>4.8</v>
+      </c>
+      <c r="G74">
+        <v>0.31</v>
+      </c>
+      <c r="H74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>307</v>
       </c>
@@ -19793,8 +20461,17 @@
       <c r="E75">
         <v>-16.510000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F75">
+        <v>2.7</v>
+      </c>
+      <c r="G75">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H75">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>308</v>
       </c>
@@ -19810,8 +20487,17 @@
       <c r="E76">
         <v>-16.72</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76">
+        <v>2.6</v>
+      </c>
+      <c r="G76">
+        <v>0.23</v>
+      </c>
+      <c r="H76">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -19827,8 +20513,17 @@
       <c r="E77">
         <v>-26.17</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F77">
+        <v>6.9</v>
+      </c>
+      <c r="G77">
+        <v>0.71</v>
+      </c>
+      <c r="H77">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>309</v>
       </c>
@@ -19844,8 +20539,17 @@
       <c r="E78">
         <v>-25.37</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F78">
+        <v>4.2</v>
+      </c>
+      <c r="G78">
+        <v>0.48</v>
+      </c>
+      <c r="H78">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>310</v>
       </c>
@@ -19861,8 +20565,17 @@
       <c r="E79">
         <v>-22.19</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <v>2.4</v>
+      </c>
+      <c r="G79">
+        <v>0.43</v>
+      </c>
+      <c r="H79">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>311</v>
       </c>
@@ -19878,8 +20591,17 @@
       <c r="E80">
         <v>-21.48</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>2.4</v>
+      </c>
+      <c r="G80">
+        <v>0.34</v>
+      </c>
+      <c r="H80">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>312</v>
       </c>
@@ -19895,8 +20617,17 @@
       <c r="E81">
         <v>-18.48</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>1.8</v>
+      </c>
+      <c r="G81">
+        <v>0.25</v>
+      </c>
+      <c r="H81">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>236</v>
       </c>
@@ -19912,8 +20643,17 @@
       <c r="E82">
         <v>-26.37</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>3.5</v>
+      </c>
+      <c r="G82">
+        <v>0.59</v>
+      </c>
+      <c r="H82">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>313</v>
       </c>
@@ -19929,8 +20669,17 @@
       <c r="E83">
         <v>-24.36</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>1.9</v>
+      </c>
+      <c r="G83">
+        <v>0.42</v>
+      </c>
+      <c r="H83">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>314</v>
       </c>
@@ -19946,8 +20695,17 @@
       <c r="E84">
         <v>-20.85</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>1.3</v>
+      </c>
+      <c r="G84">
+        <v>0.39</v>
+      </c>
+      <c r="H84">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>315</v>
       </c>
@@ -19963,8 +20721,17 @@
       <c r="E85">
         <v>-18.7</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F85">
+        <v>2.6</v>
+      </c>
+      <c r="G85">
+        <v>0.27</v>
+      </c>
+      <c r="H85">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>316</v>
       </c>
@@ -19980,8 +20747,17 @@
       <c r="E86">
         <v>-18.27</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F86">
+        <v>0.9</v>
+      </c>
+      <c r="G86">
+        <v>0.24</v>
+      </c>
+      <c r="H86">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>237</v>
       </c>
@@ -19997,8 +20773,17 @@
       <c r="E87">
         <v>-25.01</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <v>6.7</v>
+      </c>
+      <c r="G87">
+        <v>0.62</v>
+      </c>
+      <c r="H87">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>317</v>
       </c>
@@ -20014,8 +20799,17 @@
       <c r="E88">
         <v>-24.45</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F88">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G88">
+        <v>0.44</v>
+      </c>
+      <c r="H88">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>318</v>
       </c>
@@ -20031,8 +20825,17 @@
       <c r="E89">
         <v>-21.82</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>2.5</v>
+      </c>
+      <c r="G89">
+        <v>0.42</v>
+      </c>
+      <c r="H89">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>319</v>
       </c>
@@ -20048,8 +20851,17 @@
       <c r="E90">
         <v>-20.329999999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>2.1</v>
+      </c>
+      <c r="G90">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H90">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>320</v>
       </c>
@@ -20065,8 +20877,17 @@
       <c r="E91">
         <v>-18.39</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>1.6</v>
+      </c>
+      <c r="G91">
+        <v>0.25</v>
+      </c>
+      <c r="H91">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>238</v>
       </c>
@@ -20082,8 +20903,17 @@
       <c r="E92">
         <v>-26.15</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>3.7</v>
+      </c>
+      <c r="G92">
+        <v>0.77</v>
+      </c>
+      <c r="H92">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>321</v>
       </c>
@@ -20099,8 +20929,17 @@
       <c r="E93">
         <v>-25.13</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>2.9</v>
+      </c>
+      <c r="G93">
+        <v>0.52</v>
+      </c>
+      <c r="H93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>322</v>
       </c>
@@ -20116,8 +20955,17 @@
       <c r="E94">
         <v>-21.97</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>1.5</v>
+      </c>
+      <c r="G94">
+        <v>0.34</v>
+      </c>
+      <c r="H94">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>323</v>
       </c>
@@ -20133,8 +20981,17 @@
       <c r="E95">
         <v>-19.670000000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G95">
+        <v>0.26</v>
+      </c>
+      <c r="H95">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>324</v>
       </c>
@@ -20150,8 +21007,17 @@
       <c r="E96">
         <v>-19.78</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F96">
+        <v>1.2</v>
+      </c>
+      <c r="G96">
+        <v>0.26</v>
+      </c>
+      <c r="H96">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>239</v>
       </c>
@@ -20167,8 +21033,17 @@
       <c r="E97">
         <v>-26.44</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F97">
+        <v>3.8</v>
+      </c>
+      <c r="G97">
+        <v>0.59</v>
+      </c>
+      <c r="H97">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>325</v>
       </c>
@@ -20184,8 +21059,17 @@
       <c r="E98">
         <v>-25.97</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F98">
+        <v>3.1</v>
+      </c>
+      <c r="G98">
+        <v>0.54</v>
+      </c>
+      <c r="H98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>326</v>
       </c>
@@ -20201,8 +21085,17 @@
       <c r="E99">
         <v>-23.23</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F99">
+        <v>1.3</v>
+      </c>
+      <c r="G99">
+        <v>0.37</v>
+      </c>
+      <c r="H99">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>327</v>
       </c>
@@ -20218,8 +21111,17 @@
       <c r="E100">
         <v>-22.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>0.38</v>
+      </c>
+      <c r="H100">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>328</v>
       </c>
@@ -20235,8 +21137,17 @@
       <c r="E101">
         <v>-20.89</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F101">
+        <v>1.2</v>
+      </c>
+      <c r="G101">
+        <v>0.24</v>
+      </c>
+      <c r="H101">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>240</v>
       </c>
@@ -20252,8 +21163,17 @@
       <c r="E102">
         <v>-26.14</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F102">
+        <v>5.8</v>
+      </c>
+      <c r="G102">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H102">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>329</v>
       </c>
@@ -20269,8 +21189,17 @@
       <c r="E103">
         <v>-24.76</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F103">
+        <v>2.9</v>
+      </c>
+      <c r="G103">
+        <v>0.37</v>
+      </c>
+      <c r="H103">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>330</v>
       </c>
@@ -20286,8 +21215,17 @@
       <c r="E104">
         <v>-22.75</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F104">
+        <v>2.4</v>
+      </c>
+      <c r="G104">
+        <v>0.3</v>
+      </c>
+      <c r="H104">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>331</v>
       </c>
@@ -20303,8 +21241,17 @@
       <c r="E105">
         <v>-21.9</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F105">
+        <v>1.9</v>
+      </c>
+      <c r="G105">
+        <v>0.31</v>
+      </c>
+      <c r="H105">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>332</v>
       </c>
@@ -20320,8 +21267,17 @@
       <c r="E106">
         <v>-20.11</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F106">
+        <v>2.1</v>
+      </c>
+      <c r="G106">
+        <v>0.26</v>
+      </c>
+      <c r="H106">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>241</v>
       </c>
@@ -20337,8 +21293,17 @@
       <c r="E107">
         <v>-17.88</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F107">
+        <v>3.2</v>
+      </c>
+      <c r="G107">
+        <v>2.93</v>
+      </c>
+      <c r="H107">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>333</v>
       </c>
@@ -20354,8 +21319,17 @@
       <c r="E108">
         <v>-18.190000000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F108">
+        <v>1.8</v>
+      </c>
+      <c r="G108">
+        <v>0.6</v>
+      </c>
+      <c r="H108">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>334</v>
       </c>
@@ -20371,8 +21345,17 @@
       <c r="E109">
         <v>-18.93</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H109">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>335</v>
       </c>
@@ -20388,8 +21371,17 @@
       <c r="E110">
         <v>-19.54</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F110">
+        <v>3.9</v>
+      </c>
+      <c r="G110">
+        <v>0.13</v>
+      </c>
+      <c r="H110">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>336</v>
       </c>
@@ -20405,8 +21397,17 @@
       <c r="E111">
         <v>-18.940000000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F111">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G111">
+        <v>0.17</v>
+      </c>
+      <c r="H111">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>242</v>
       </c>
@@ -20422,8 +21423,17 @@
       <c r="E112">
         <v>-26.47</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F112">
+        <v>4.7</v>
+      </c>
+      <c r="G112">
+        <v>0.66</v>
+      </c>
+      <c r="H112">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>337</v>
       </c>
@@ -20439,8 +21449,17 @@
       <c r="E113">
         <v>-25.57</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F113">
+        <v>3.5</v>
+      </c>
+      <c r="G113">
+        <v>0.43</v>
+      </c>
+      <c r="H113">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>338</v>
       </c>
@@ -20456,8 +21475,17 @@
       <c r="E114">
         <v>-22.79</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F114">
+        <v>2.8</v>
+      </c>
+      <c r="G114">
+        <v>0.39</v>
+      </c>
+      <c r="H114">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>339</v>
       </c>
@@ -20473,8 +21501,17 @@
       <c r="E115">
         <v>-22.56</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F115">
+        <v>2.4</v>
+      </c>
+      <c r="G115">
+        <v>0.36</v>
+      </c>
+      <c r="H115">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>340</v>
       </c>
@@ -20490,8 +21527,17 @@
       <c r="E116">
         <v>-20.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F116">
+        <v>1.4</v>
+      </c>
+      <c r="G116">
+        <v>0.25</v>
+      </c>
+      <c r="H116">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>243</v>
       </c>
@@ -20507,8 +21553,17 @@
       <c r="E117">
         <v>-26.9</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
+        <v>0.79</v>
+      </c>
+      <c r="H117">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>341</v>
       </c>
@@ -20524,8 +21579,17 @@
       <c r="E118">
         <v>-25.02</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F118">
+        <v>5.4</v>
+      </c>
+      <c r="G118">
+        <v>0.5</v>
+      </c>
+      <c r="H118">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>342</v>
       </c>
@@ -20541,8 +21605,17 @@
       <c r="E119">
         <v>-23.13</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F119">
+        <v>5.2</v>
+      </c>
+      <c r="G119">
+        <v>0.42</v>
+      </c>
+      <c r="H119">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>343</v>
       </c>
@@ -20558,8 +21631,17 @@
       <c r="E120">
         <v>-22.24</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F120">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G120">
+        <v>0.41</v>
+      </c>
+      <c r="H120">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>344</v>
       </c>
@@ -20575,8 +21657,17 @@
       <c r="E121">
         <v>-21.72</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F121">
+        <v>4.2</v>
+      </c>
+      <c r="G121">
+        <v>0.34</v>
+      </c>
+      <c r="H121">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>244</v>
       </c>
@@ -20592,8 +21683,17 @@
       <c r="E122">
         <v>-26.37</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F122">
+        <v>8.4</v>
+      </c>
+      <c r="G122">
+        <v>0.75</v>
+      </c>
+      <c r="H122">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>345</v>
       </c>
@@ -20609,8 +21709,17 @@
       <c r="E123">
         <v>-24.57</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F123">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G123">
+        <v>0.49</v>
+      </c>
+      <c r="H123">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>346</v>
       </c>
@@ -20626,8 +21735,17 @@
       <c r="E124">
         <v>-22.59</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F124">
+        <v>3.2</v>
+      </c>
+      <c r="G124">
+        <v>0.4</v>
+      </c>
+      <c r="H124">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>347</v>
       </c>
@@ -20643,8 +21761,17 @@
       <c r="E125">
         <v>-22.02</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F125">
+        <v>2.7</v>
+      </c>
+      <c r="G125">
+        <v>0.4</v>
+      </c>
+      <c r="H125">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>348</v>
       </c>
@@ -20660,8 +21787,17 @@
       <c r="E126">
         <v>-21.07</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F126">
+        <v>2.4</v>
+      </c>
+      <c r="G126">
+        <v>0.32</v>
+      </c>
+      <c r="H126">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>245</v>
       </c>
@@ -20677,8 +21813,17 @@
       <c r="E127">
         <v>-26</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F127">
+        <v>7.9</v>
+      </c>
+      <c r="G127">
+        <v>0.64</v>
+      </c>
+      <c r="H127">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>349</v>
       </c>
@@ -20694,8 +21839,17 @@
       <c r="E128">
         <v>-25.77</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F128">
+        <v>5.5</v>
+      </c>
+      <c r="G128">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>350</v>
       </c>
@@ -20711,8 +21865,17 @@
       <c r="E129">
         <v>-22.49</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F129">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G129">
+        <v>0.45</v>
+      </c>
+      <c r="H129">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>351</v>
       </c>
@@ -20728,8 +21891,17 @@
       <c r="E130">
         <v>-21.87</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F130">
+        <v>5</v>
+      </c>
+      <c r="G130">
+        <v>0.4</v>
+      </c>
+      <c r="H130">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>352</v>
       </c>
@@ -20745,8 +21917,17 @@
       <c r="E131">
         <v>-20.69</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F131">
+        <v>2.8</v>
+      </c>
+      <c r="G131">
+        <v>0.3</v>
+      </c>
+      <c r="H131">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>246</v>
       </c>
@@ -20762,8 +21943,17 @@
       <c r="E132">
         <v>-25.71</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F132">
+        <v>4.7</v>
+      </c>
+      <c r="G132">
+        <v>0.71</v>
+      </c>
+      <c r="H132">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>353</v>
       </c>
@@ -20779,8 +21969,17 @@
       <c r="E133">
         <v>-24.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F133">
+        <v>3.4</v>
+      </c>
+      <c r="G133">
+        <v>0.54</v>
+      </c>
+      <c r="H133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>354</v>
       </c>
@@ -20796,8 +21995,17 @@
       <c r="E134">
         <v>-22.2</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F134">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G134">
+        <v>0.47</v>
+      </c>
+      <c r="H134">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>355</v>
       </c>
@@ -20813,8 +22021,17 @@
       <c r="E135">
         <v>-21</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F135">
+        <v>2.5</v>
+      </c>
+      <c r="G135">
+        <v>0.42</v>
+      </c>
+      <c r="H135">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>356</v>
       </c>
@@ -20830,8 +22047,17 @@
       <c r="E136">
         <v>-21.09</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F136">
+        <v>1.6</v>
+      </c>
+      <c r="G136">
+        <v>0.41</v>
+      </c>
+      <c r="H136">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>247</v>
       </c>
@@ -20847,8 +22073,17 @@
       <c r="E137">
         <v>-25.69</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F137">
+        <v>1.3</v>
+      </c>
+      <c r="G137">
+        <v>0.73</v>
+      </c>
+      <c r="H137">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>357</v>
       </c>
@@ -20864,8 +22099,17 @@
       <c r="E138">
         <v>-22.93</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F138">
+        <v>1.4</v>
+      </c>
+      <c r="G138">
+        <v>0.44</v>
+      </c>
+      <c r="H138">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>358</v>
       </c>
@@ -20881,8 +22125,17 @@
       <c r="E139">
         <v>-19.329999999999998</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F139">
+        <v>0.5</v>
+      </c>
+      <c r="G139">
+        <v>0.35</v>
+      </c>
+      <c r="H139">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>359</v>
       </c>
@@ -20898,8 +22151,17 @@
       <c r="E140">
         <v>-18.14</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F140">
+        <v>0.8</v>
+      </c>
+      <c r="G140">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H140">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>360</v>
       </c>
@@ -20915,8 +22177,17 @@
       <c r="E141">
         <v>-18.45</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F141">
+        <v>0.8</v>
+      </c>
+      <c r="G141">
+        <v>0.23</v>
+      </c>
+      <c r="H141">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>248</v>
       </c>
@@ -20932,8 +22203,17 @@
       <c r="E142">
         <v>-26.11</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F142">
+        <v>10.8</v>
+      </c>
+      <c r="G142">
+        <v>0.85</v>
+      </c>
+      <c r="H142">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>361</v>
       </c>
@@ -20949,8 +22229,17 @@
       <c r="E143">
         <v>-24.96</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F143">
+        <v>8.6</v>
+      </c>
+      <c r="G143">
+        <v>0.6</v>
+      </c>
+      <c r="H143">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>362</v>
       </c>
@@ -20966,8 +22255,17 @@
       <c r="E144">
         <v>-22.33</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F144">
+        <v>5.7</v>
+      </c>
+      <c r="G144">
+        <v>0.48</v>
+      </c>
+      <c r="H144">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>363</v>
       </c>
@@ -20983,8 +22281,17 @@
       <c r="E145">
         <v>-22.64</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F145">
+        <v>5.6</v>
+      </c>
+      <c r="G145">
+        <v>0.5</v>
+      </c>
+      <c r="H145">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>364</v>
       </c>
@@ -21000,8 +22307,17 @@
       <c r="E146">
         <v>-21.55</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F146">
+        <v>5.8</v>
+      </c>
+      <c r="G146">
+        <v>0.43</v>
+      </c>
+      <c r="H146">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>249</v>
       </c>
@@ -21017,8 +22333,17 @@
       <c r="E147">
         <v>-25.87</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F147">
+        <v>2.8</v>
+      </c>
+      <c r="G147">
+        <v>0.87</v>
+      </c>
+      <c r="H147">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>365</v>
       </c>
@@ -21034,8 +22359,17 @@
       <c r="E148">
         <v>-26.14</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F148">
+        <v>2.5</v>
+      </c>
+      <c r="G148">
+        <v>0.75</v>
+      </c>
+      <c r="H148">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>366</v>
       </c>
@@ -21051,8 +22385,17 @@
       <c r="E149">
         <v>-20.87</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F149">
+        <v>1.6</v>
+      </c>
+      <c r="G149">
+        <v>0.44</v>
+      </c>
+      <c r="H149">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>367</v>
       </c>
@@ -21068,8 +22411,17 @@
       <c r="E150">
         <v>-19.899999999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0.41</v>
+      </c>
+      <c r="H150">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>368</v>
       </c>
@@ -21084,6 +22436,15 @@
       </c>
       <c r="E151">
         <v>-18.670000000000002</v>
+      </c>
+      <c r="F151">
+        <v>1.2</v>
+      </c>
+      <c r="G151">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H151">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
